--- a/rapport journalier/Rapport journalier - Richard.xlsx
+++ b/rapport journalier/Rapport journalier - Richard.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="11">
   <si>
-    <t xml:space="preserve">DATE : </t>
+    <t xml:space="preserve">DATE : 22/7/2020</t>
   </si>
   <si>
     <t xml:space="preserve">JOUR:</t>
@@ -45,6 +45,15 @@
   <si>
     <t xml:space="preserve">DIFICULTE:</t>
   </si>
+  <si>
+    <t xml:space="preserve">DATE : 23/7/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assemblage et finalisation  des materiels pour la presentation de 24/07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE : </t>
+  </si>
 </sst>
 </file>
 
@@ -53,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -95,12 +104,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -215,7 +218,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -244,7 +247,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -256,10 +259,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -284,7 +283,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -292,7 +291,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -300,11 +299,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -392,7 +391,7 @@
   <dimension ref="B3:J151"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -436,11 +435,11 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="9"/>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="J5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -448,17 +447,17 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="9"/>
@@ -473,36 +472,41 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19" t="s">
+      <c r="B13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="20"/>
+      <c r="I13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>4</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="J14" s="8"/>
     </row>
@@ -515,17 +519,17 @@
       <c r="J16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="23"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="9"/>
@@ -540,35 +544,35 @@
       <c r="J20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="s">
+      <c r="B23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
       <c r="H23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="20"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="19"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>4</v>
       </c>
       <c r="J24" s="8"/>
@@ -582,17 +586,17 @@
       <c r="J26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="23"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="22"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9"/>
@@ -607,35 +611,35 @@
       <c r="J30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="15"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19" t="s">
+      <c r="B33" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
       <c r="H33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I33" s="18"/>
-      <c r="J33" s="20"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="19"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="20" t="s">
         <v>4</v>
       </c>
       <c r="J34" s="8"/>
@@ -649,17 +653,17 @@
       <c r="J36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="23"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="22"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="9"/>
@@ -674,35 +678,35 @@
       <c r="J40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="15"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="19" t="s">
+      <c r="B43" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
       <c r="H43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I43" s="18"/>
-      <c r="J43" s="20"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="19"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="20" t="s">
         <v>4</v>
       </c>
       <c r="J44" s="8"/>
@@ -716,17 +720,17 @@
       <c r="J46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="23"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="22"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="9"/>
@@ -741,35 +745,35 @@
       <c r="J50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="14"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="15"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="19" t="s">
+      <c r="B53" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
       <c r="H53" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I53" s="18"/>
-      <c r="J53" s="20"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="19"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="20" t="s">
         <v>4</v>
       </c>
       <c r="J54" s="8"/>
@@ -783,17 +787,17 @@
       <c r="J56" s="8"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="23"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="22"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="9"/>
@@ -808,35 +812,35 @@
       <c r="J60" s="8"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="14"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="15"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="19" t="s">
+      <c r="B63" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
       <c r="H63" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I63" s="18"/>
-      <c r="J63" s="20"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="19"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="20" t="s">
         <v>4</v>
       </c>
       <c r="J64" s="8"/>
@@ -850,17 +854,17 @@
       <c r="J66" s="8"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="23"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="22"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="9"/>
@@ -875,35 +879,35 @@
       <c r="J70" s="8"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="14"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="15"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="19" t="s">
+      <c r="B73" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
       <c r="H73" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I73" s="18"/>
-      <c r="J73" s="20"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="19"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="20" t="s">
         <v>4</v>
       </c>
       <c r="J74" s="8"/>
@@ -917,17 +921,17 @@
       <c r="J76" s="8"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="23"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="22"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="9"/>
@@ -942,35 +946,35 @@
       <c r="J80" s="8"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="15"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="19" t="s">
+      <c r="B83" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
       <c r="H83" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I83" s="18"/>
-      <c r="J83" s="20"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="19"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="21" t="s">
+      <c r="B84" s="20" t="s">
         <v>4</v>
       </c>
       <c r="J84" s="8"/>
@@ -984,17 +988,17 @@
       <c r="J86" s="8"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="22" t="s">
+      <c r="B87" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="23"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="22"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="9"/>
@@ -1009,35 +1013,35 @@
       <c r="J90" s="8"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="14"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="15"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="19" t="s">
+      <c r="B93" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
       <c r="H93" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I93" s="18"/>
-      <c r="J93" s="20"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="19"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="21" t="s">
+      <c r="B94" s="20" t="s">
         <v>4</v>
       </c>
       <c r="J94" s="8"/>
@@ -1051,17 +1055,17 @@
       <c r="J96" s="8"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="22" t="s">
+      <c r="B97" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="23"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="22"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="9"/>
@@ -1076,35 +1080,35 @@
       <c r="J100" s="8"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="14"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="15"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="19" t="s">
+      <c r="B103" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
       <c r="H103" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I103" s="18"/>
-      <c r="J103" s="20"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="19"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="21" t="s">
+      <c r="B104" s="20" t="s">
         <v>4</v>
       </c>
       <c r="J104" s="8"/>
@@ -1118,17 +1122,17 @@
       <c r="J106" s="8"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="22" t="s">
+      <c r="B107" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="12"/>
-      <c r="J107" s="23"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="22"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="9"/>
@@ -1143,35 +1147,35 @@
       <c r="J110" s="8"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="14"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="15"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="19" t="s">
+      <c r="B113" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
       <c r="H113" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I113" s="18"/>
-      <c r="J113" s="20"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="19"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="21" t="s">
+      <c r="B114" s="20" t="s">
         <v>4</v>
       </c>
       <c r="J114" s="8"/>
@@ -1185,17 +1189,17 @@
       <c r="J116" s="8"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="22" t="s">
+      <c r="B117" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
-      <c r="J117" s="23"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="22"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="9"/>
@@ -1210,35 +1214,35 @@
       <c r="J120" s="8"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="14"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
-      <c r="F121" s="15"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+      <c r="J121" s="15"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C123" s="18"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="19" t="s">
+      <c r="B123" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F123" s="18"/>
-      <c r="G123" s="18"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
       <c r="H123" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I123" s="18"/>
-      <c r="J123" s="20"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="19"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="21" t="s">
+      <c r="B124" s="20" t="s">
         <v>4</v>
       </c>
       <c r="J124" s="8"/>
@@ -1252,17 +1256,17 @@
       <c r="J126" s="8"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="22" t="s">
+      <c r="B127" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C127" s="12"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="12"/>
-      <c r="I127" s="12"/>
-      <c r="J127" s="23"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="22"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="9"/>
@@ -1277,35 +1281,35 @@
       <c r="J130" s="8"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="14"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="15"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="15"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C133" s="18"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="19" t="s">
+      <c r="B133" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F133" s="18"/>
-      <c r="G133" s="18"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="17"/>
       <c r="H133" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I133" s="18"/>
-      <c r="J133" s="20"/>
+      <c r="I133" s="17"/>
+      <c r="J133" s="19"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="21" t="s">
+      <c r="B134" s="20" t="s">
         <v>4</v>
       </c>
       <c r="J134" s="8"/>
@@ -1319,17 +1323,17 @@
       <c r="J136" s="8"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="22" t="s">
+      <c r="B137" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C137" s="12"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="12"/>
-      <c r="F137" s="12"/>
-      <c r="G137" s="12"/>
-      <c r="H137" s="12"/>
-      <c r="I137" s="12"/>
-      <c r="J137" s="23"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="22"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="9"/>
@@ -1344,35 +1348,35 @@
       <c r="J140" s="8"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="14"/>
-      <c r="C141" s="15"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="15"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="15"/>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
-      <c r="J141" s="16"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="14"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="14"/>
+      <c r="J141" s="15"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C143" s="18"/>
-      <c r="D143" s="18"/>
-      <c r="E143" s="19" t="s">
+      <c r="B143" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F143" s="18"/>
-      <c r="G143" s="18"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="17"/>
       <c r="H143" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I143" s="18"/>
-      <c r="J143" s="20"/>
+      <c r="I143" s="17"/>
+      <c r="J143" s="19"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="21" t="s">
+      <c r="B144" s="20" t="s">
         <v>4</v>
       </c>
       <c r="J144" s="8"/>
@@ -1386,17 +1390,17 @@
       <c r="J146" s="8"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="22" t="s">
+      <c r="B147" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C147" s="12"/>
-      <c r="D147" s="12"/>
-      <c r="E147" s="12"/>
-      <c r="F147" s="12"/>
-      <c r="G147" s="12"/>
-      <c r="H147" s="12"/>
-      <c r="I147" s="12"/>
-      <c r="J147" s="23"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="11"/>
+      <c r="J147" s="22"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="9"/>
@@ -1411,15 +1415,15 @@
       <c r="J150" s="8"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="14"/>
-      <c r="C151" s="15"/>
-      <c r="D151" s="15"/>
-      <c r="E151" s="15"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="15"/>
-      <c r="H151" s="15"/>
-      <c r="I151" s="15"/>
-      <c r="J151" s="16"/>
+      <c r="B151" s="13"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="14"/>
+      <c r="H151" s="14"/>
+      <c r="I151" s="14"/>
+      <c r="J151" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/rapport journalier/Rapport journalier - Richard.xlsx
+++ b/rapport journalier/Rapport journalier - Richard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="13">
   <si>
     <t xml:space="preserve">DATE : 22/7/2020</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t xml:space="preserve">Assemblage et finalisation  des materiels pour la presentation de 24/07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE : 24/07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparation pour la presentation, debut du code </t>
   </si>
   <si>
     <t xml:space="preserve">DATE : </t>
@@ -218,7 +224,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -309,6 +315,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -390,8 +400,8 @@
   </sheetPr>
   <dimension ref="B3:J151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -568,13 +578,22 @@
       <c r="H23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I23" s="17"/>
+      <c r="I23" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="J23" s="19"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="20" t="s">
         <v>4</v>
       </c>
+      <c r="C24" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
       <c r="J24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -623,7 +642,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -690,7 +709,7 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -757,7 +776,7 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -824,7 +843,7 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
@@ -891,7 +910,7 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
@@ -958,7 +977,7 @@
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
@@ -1025,7 +1044,7 @@
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
@@ -1092,7 +1111,7 @@
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -1159,7 +1178,7 @@
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
@@ -1226,7 +1245,7 @@
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C123" s="17"/>
       <c r="D123" s="17"/>
@@ -1293,7 +1312,7 @@
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C133" s="17"/>
       <c r="D133" s="17"/>
@@ -1360,7 +1379,7 @@
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C143" s="17"/>
       <c r="D143" s="17"/>
@@ -1426,9 +1445,10 @@
       <c r="J151" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C24:G24"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/rapport journalier/Rapport journalier - Richard.xlsx
+++ b/rapport journalier/Rapport journalier - Richard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="17">
   <si>
     <t xml:space="preserve">DATE : 22/7/2020</t>
   </si>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t xml:space="preserve">Preparation pour la presentation, debut du code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE : 25/07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debougage de git , problemes des merges , configurations de base remis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE : 28/07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page Recherche a finir evenement a ajouter</t>
   </si>
   <si>
     <t xml:space="preserve">DATE : </t>
@@ -224,7 +236,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -315,10 +327,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -400,8 +408,8 @@
   </sheetPr>
   <dimension ref="B3:J151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -587,13 +595,13 @@
       <c r="B24" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
       <c r="J24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -654,12 +662,17 @@
       <c r="H33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I33" s="17"/>
+      <c r="I33" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="J33" s="19"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="20" t="s">
         <v>4</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="J34" s="8"/>
     </row>
@@ -709,7 +722,7 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -721,12 +734,17 @@
       <c r="H43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I43" s="17"/>
+      <c r="I43" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="J43" s="19"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="20" t="s">
         <v>4</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="J44" s="8"/>
     </row>
@@ -776,7 +794,7 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -843,7 +861,7 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
@@ -910,7 +928,7 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
@@ -977,7 +995,7 @@
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
@@ -1044,7 +1062,7 @@
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
@@ -1111,7 +1129,7 @@
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -1178,7 +1196,7 @@
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
@@ -1245,7 +1263,7 @@
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C123" s="17"/>
       <c r="D123" s="17"/>
@@ -1312,7 +1330,7 @@
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C133" s="17"/>
       <c r="D133" s="17"/>
@@ -1379,7 +1397,7 @@
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C143" s="17"/>
       <c r="D143" s="17"/>

--- a/rapport journalier/Rapport journalier - Richard.xlsx
+++ b/rapport journalier/Rapport journalier - Richard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="21">
   <si>
     <t xml:space="preserve">DATE : 22/7/2020</t>
   </si>
@@ -56,6 +56,30 @@
   </si>
   <si>
     <t xml:space="preserve">Preparation pour la presentation, debut du code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE : 27/072020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuration de packcage reglement des problemes de git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE : 28/07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problemes de merge a regler encore , travails sur la page recherche </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE : 29/07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation de une page application container pour faciliter le codage , encore travails sur la page recherche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE : 30/07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page recherche evenements et states a creer</t>
   </si>
   <si>
     <t xml:space="preserve">DATE : </t>
@@ -224,7 +248,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -315,10 +339,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -400,8 +420,8 @@
   </sheetPr>
   <dimension ref="B3:J151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -587,13 +607,13 @@
       <c r="B24" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
       <c r="J24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -654,12 +674,17 @@
       <c r="H33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I33" s="17"/>
+      <c r="I33" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="J33" s="19"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="20" t="s">
         <v>4</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="J34" s="8"/>
     </row>
@@ -709,7 +734,7 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -721,12 +746,17 @@
       <c r="H43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I43" s="17"/>
+      <c r="I43" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="J43" s="19"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="20" t="s">
         <v>4</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="J44" s="8"/>
     </row>
@@ -776,7 +806,7 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -788,12 +818,17 @@
       <c r="H53" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I53" s="17"/>
+      <c r="I53" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="J53" s="19"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="20" t="s">
         <v>4</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="J54" s="8"/>
     </row>
@@ -843,7 +878,7 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
@@ -855,12 +890,17 @@
       <c r="H63" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I63" s="17"/>
+      <c r="I63" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="J63" s="19"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="20" t="s">
         <v>4</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="J64" s="8"/>
     </row>
@@ -910,7 +950,7 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
@@ -977,7 +1017,7 @@
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
@@ -1044,7 +1084,7 @@
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
@@ -1111,7 +1151,7 @@
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -1178,7 +1218,7 @@
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
@@ -1245,7 +1285,7 @@
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C123" s="17"/>
       <c r="D123" s="17"/>
@@ -1312,7 +1352,7 @@
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C133" s="17"/>
       <c r="D133" s="17"/>
@@ -1379,7 +1419,7 @@
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C143" s="17"/>
       <c r="D143" s="17"/>
